--- a/Share Analysis WIP.xlsx
+++ b/Share Analysis WIP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\nepse-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE96B5F-8779-4ED4-A937-2921C4B7F953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D210537-5D4E-4D6F-A911-11D9606041BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculation" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Change %</t>
   </si>
@@ -67,6 +67,81 @@
   </si>
   <si>
     <t>Item 5</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Select Data Option</t>
+  </si>
+  <si>
+    <t>Open1</t>
+  </si>
+  <si>
+    <t>Open2</t>
+  </si>
+  <si>
+    <t>Open3</t>
+  </si>
+  <si>
+    <t>Open4</t>
+  </si>
+  <si>
+    <t>Open5</t>
+  </si>
+  <si>
+    <t>Open6</t>
+  </si>
+  <si>
+    <t>Open7</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>Open%</t>
+  </si>
+  <si>
+    <t>High%</t>
+  </si>
+  <si>
+    <t>Low%</t>
+  </si>
+  <si>
+    <t>Close%</t>
+  </si>
+  <si>
+    <t>Volume%</t>
+  </si>
+  <si>
+    <t>Open%1</t>
+  </si>
+  <si>
+    <t>Open%2</t>
+  </si>
+  <si>
+    <t>Open%3</t>
+  </si>
+  <si>
+    <t>Open%4</t>
+  </si>
+  <si>
+    <t>Open%5</t>
+  </si>
+  <si>
+    <t>Open%6</t>
+  </si>
+  <si>
+    <t>Open%7</t>
+  </si>
+  <si>
+    <t>Weekly Data</t>
+  </si>
+  <si>
+    <t>Weejkt Change% Data</t>
   </si>
 </sst>
 </file>
@@ -123,9 +198,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:C11"/>
+  <dimension ref="B5:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,7 +494,7 @@
     <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -426,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -434,7 +510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -442,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -450,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -458,7 +534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -466,13 +542,187 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Share Analysis WIP.xlsx
+++ b/Share Analysis WIP.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\nepse-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D210537-5D4E-4D6F-A911-11D9606041BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C702AAB6-E446-4B05-9C09-B0B120CCCB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculation" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="Basic Rule" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Change %</t>
   </si>
@@ -142,6 +145,33 @@
   </si>
   <si>
     <t>Weejkt Change% Data</t>
+  </si>
+  <si>
+    <t>Last two days compare</t>
+  </si>
+  <si>
+    <t>Weekly 7 days data compare</t>
+  </si>
+  <si>
+    <t>Weekly 7 days trend analysis</t>
+  </si>
+  <si>
+    <t>Like High volume, High Rate, Low Rate</t>
+  </si>
+  <si>
+    <t>Automatically sort data as per given MULTIPLE criteria</t>
+  </si>
+  <si>
+    <t>if there is no data in last day then the data should be the day before yesterday automatically</t>
+  </si>
+  <si>
+    <t>make separate company detail</t>
+  </si>
+  <si>
+    <t>update same data as before</t>
+  </si>
+  <si>
+    <t>Yesterday day data is same as last traded data</t>
   </si>
 </sst>
 </file>
@@ -484,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,4 +758,116 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52134140-ED99-4111-AB91-7B89BB47DE42}">
+  <dimension ref="B4:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EC2FE3-EBA6-4A69-8DC9-BA2E853734EC}">
+  <dimension ref="B4:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="77.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5C3AD-4C1E-415D-9145-C5059E1FD607}">
+  <dimension ref="B1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Share Analysis WIP.xlsx
+++ b/Share Analysis WIP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\nepse-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C702AAB6-E446-4B05-9C09-B0B120CCCB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ABFC6F-916A-4DF7-B566-725694D5F9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculation" sheetId="1" r:id="rId1"/>
@@ -514,13 +514,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -843,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5C3AD-4C1E-415D-9145-C5059E1FD607}">
   <dimension ref="B1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
